--- a/6210742356/TestCase 6210742356.xlsx
+++ b/6210742356/TestCase 6210742356.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CN334\6210742356\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328921EA-311C-4821-B634-D1448255889C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89E2E98-EC5C-4D8C-8062-F7DAB13983EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6135" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="100">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -222,24 +222,6 @@
     <t>Already have URL to Register</t>
   </si>
   <si>
-    <t>TC01</t>
-  </si>
-  <si>
-    <t>TC02</t>
-  </si>
-  <si>
-    <t>TC03</t>
-  </si>
-  <si>
-    <t>TC04</t>
-  </si>
-  <si>
-    <t>TC05</t>
-  </si>
-  <si>
-    <t>TC06</t>
-  </si>
-  <si>
     <t>Click the button Register</t>
   </si>
   <si>
@@ -319,6 +301,27 @@
   </si>
   <si>
     <t>Verify on entering valid Name and Email, the customer can Updated the profile information</t>
+  </si>
+  <si>
+    <t>Mr.Siraphat</t>
+  </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>TC_06</t>
   </si>
 </sst>
 </file>
@@ -703,6 +706,24 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -715,110 +736,38 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -837,6 +786,60 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1116,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M157" sqref="M157"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1130,14 +1133,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="53" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="43"/>
@@ -1151,29 +1154,29 @@
       <c r="K1" s="36"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="43"/>
       <c r="F2" s="35" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G2" s="36"/>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="47" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="43"/>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="51"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
@@ -1189,12 +1192,12 @@
       <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -1219,29 +1222,29 @@
       <c r="K5" s="15"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="55"/>
-      <c r="H6" s="49" t="s">
+      <c r="G6" s="49"/>
+      <c r="H6" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="56" t="s">
+      <c r="I6" s="46"/>
+      <c r="J6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="56"/>
+      <c r="K6" s="50"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
@@ -1260,22 +1263,22 @@
       <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="20"/>
       <c r="F8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
@@ -1376,7 +1379,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -1429,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="32" t="s">
@@ -1452,11 +1455,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="32" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="34" t="s">
@@ -1502,7 +1505,7 @@
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="32" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E21" s="32"/>
       <c r="F21" s="34" t="s">
@@ -1521,7 +1524,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="32" t="s">
@@ -1553,14 +1556,14 @@
       <c r="K23" s="36"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="43"/>
       <c r="C28" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="53" t="s">
         <v>0</v>
       </c>
       <c r="E28" s="43"/>
@@ -1574,29 +1577,29 @@
       <c r="K28" s="36"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="43"/>
       <c r="C29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="35" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G29" s="36"/>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="47" t="s">
         <v>12</v>
       </c>
       <c r="I29" s="43"/>
-      <c r="J29" s="50" t="s">
+      <c r="J29" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="K29" s="51"/>
+      <c r="K29" s="56"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
@@ -1612,12 +1615,12 @@
       <c r="K30" s="15"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="53"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
@@ -1642,29 +1645,29 @@
       <c r="K32" s="15"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="53"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="54" t="s">
+      <c r="E33" s="46"/>
+      <c r="F33" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="55"/>
-      <c r="H33" s="49" t="s">
+      <c r="G33" s="49"/>
+      <c r="H33" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="53"/>
-      <c r="J33" s="56" t="s">
+      <c r="I33" s="46"/>
+      <c r="J33" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="K33" s="56"/>
+      <c r="K33" s="50"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="18"/>
@@ -1683,22 +1686,22 @@
       <c r="A35" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="20"/>
       <c r="F35" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="47" t="s">
+      <c r="G35" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="22">
@@ -1711,7 +1714,7 @@
       <c r="D36" s="36"/>
       <c r="E36" s="14"/>
       <c r="F36" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G36" s="34" t="s">
         <v>40</v>
@@ -1732,7 +1735,7 @@
       <c r="D37" s="36"/>
       <c r="E37" s="14"/>
       <c r="F37" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>41</v>
@@ -1752,9 +1755,7 @@
       <c r="C38" s="35"/>
       <c r="D38" s="36"/>
       <c r="E38" s="14"/>
-      <c r="F38" s="22">
-        <v>3</v>
-      </c>
+      <c r="F38" s="22"/>
       <c r="G38" s="34"/>
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
@@ -1766,14 +1767,12 @@
         <v>4</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C39" s="35"/>
       <c r="D39" s="36"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="22">
-        <v>4</v>
-      </c>
+      <c r="F39" s="22"/>
       <c r="G39" s="34"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
@@ -1798,7 +1797,7 @@
         <v>22</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
@@ -1851,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C45" s="37"/>
       <c r="D45" s="32" t="s">
@@ -1874,11 +1873,11 @@
         <v>2</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="32" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E46" s="32"/>
       <c r="F46" s="34" t="s">
@@ -1975,14 +1974,14 @@
       <c r="K50" s="36"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B55" s="43"/>
       <c r="C55" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="53" t="s">
         <v>0</v>
       </c>
       <c r="E55" s="43"/>
@@ -1996,29 +1995,29 @@
       <c r="K55" s="36"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="43"/>
       <c r="C56" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D56" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="43"/>
       <c r="F56" s="35" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G56" s="36"/>
-      <c r="H56" s="49" t="s">
+      <c r="H56" s="47" t="s">
         <v>12</v>
       </c>
       <c r="I56" s="43"/>
-      <c r="J56" s="50" t="s">
+      <c r="J56" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="K56" s="51"/>
+      <c r="K56" s="56"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="14"/>
@@ -2034,12 +2033,12 @@
       <c r="K57" s="15"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="53"/>
+      <c r="B58" s="46"/>
       <c r="C58" s="24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
@@ -2064,29 +2063,29 @@
       <c r="K59" s="15"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="49" t="s">
+      <c r="A60" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="53"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="53"/>
-      <c r="F60" s="54" t="s">
+      <c r="E60" s="46"/>
+      <c r="F60" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G60" s="55"/>
-      <c r="H60" s="49" t="s">
+      <c r="G60" s="49"/>
+      <c r="H60" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I60" s="53"/>
-      <c r="J60" s="56" t="s">
+      <c r="I60" s="46"/>
+      <c r="J60" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="K60" s="56"/>
+      <c r="K60" s="50"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
@@ -2105,22 +2104,22 @@
       <c r="A62" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="45" t="s">
+      <c r="B62" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
       <c r="E62" s="20"/>
       <c r="F62" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="47" t="s">
+      <c r="G62" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H62" s="48"/>
-      <c r="I62" s="48"/>
-      <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="22">
@@ -2186,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C66" s="35"/>
       <c r="D66" s="36"/>
@@ -2218,7 +2217,7 @@
         <v>22</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
@@ -2271,11 +2270,11 @@
         <v>1</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C72" s="37"/>
       <c r="D72" s="32" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E72" s="32"/>
       <c r="F72" s="34" t="s">
@@ -2317,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C74" s="33"/>
       <c r="D74" s="32" t="s">
@@ -2340,7 +2339,7 @@
         <v>4</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C75" s="33"/>
       <c r="D75" s="32" t="s">
@@ -2385,14 +2384,14 @@
       <c r="K77" s="36"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B82" s="43"/>
       <c r="C82" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="53" t="s">
         <v>0</v>
       </c>
       <c r="E82" s="43"/>
@@ -2406,29 +2405,29 @@
       <c r="K82" s="36"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B83" s="43"/>
       <c r="C83" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D83" s="47" t="s">
+      <c r="D83" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E83" s="43"/>
       <c r="F83" s="35" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G83" s="36"/>
-      <c r="H83" s="49" t="s">
+      <c r="H83" s="47" t="s">
         <v>12</v>
       </c>
       <c r="I83" s="43"/>
-      <c r="J83" s="50" t="s">
+      <c r="J83" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="K83" s="51"/>
+      <c r="K83" s="56"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="14"/>
@@ -2444,12 +2443,12 @@
       <c r="K84" s="15"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A85" s="52" t="s">
+      <c r="A85" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="53"/>
+      <c r="B85" s="46"/>
       <c r="C85" s="24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
@@ -2474,29 +2473,29 @@
       <c r="K86" s="15"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A87" s="49" t="s">
+      <c r="A87" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="53"/>
+      <c r="B87" s="46"/>
       <c r="C87" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D87" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E87" s="53"/>
-      <c r="F87" s="54" t="s">
+      <c r="E87" s="46"/>
+      <c r="F87" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G87" s="55"/>
-      <c r="H87" s="49" t="s">
+      <c r="G87" s="49"/>
+      <c r="H87" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I87" s="53"/>
-      <c r="J87" s="56" t="s">
+      <c r="I87" s="46"/>
+      <c r="J87" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="K87" s="56"/>
+      <c r="K87" s="50"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="18"/>
@@ -2515,22 +2514,22 @@
       <c r="A89" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="45" t="s">
+      <c r="B89" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="46"/>
-      <c r="D89" s="46"/>
+      <c r="C89" s="52"/>
+      <c r="D89" s="52"/>
       <c r="E89" s="20"/>
       <c r="F89" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G89" s="47" t="s">
+      <c r="G89" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H89" s="48"/>
-      <c r="I89" s="48"/>
-      <c r="J89" s="48"/>
-      <c r="K89" s="48"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="54"/>
+      <c r="J89" s="54"/>
+      <c r="K89" s="54"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="22">
@@ -2543,7 +2542,7 @@
       <c r="D90" s="36"/>
       <c r="E90" s="14"/>
       <c r="F90" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G90" s="34" t="s">
         <v>40</v>
@@ -2563,9 +2562,7 @@
       <c r="C91" s="35"/>
       <c r="D91" s="36"/>
       <c r="E91" s="14"/>
-      <c r="F91" s="22">
-        <v>2</v>
-      </c>
+      <c r="F91" s="22"/>
       <c r="G91" s="34"/>
       <c r="H91" s="35"/>
       <c r="I91" s="35"/>
@@ -2582,9 +2579,7 @@
       <c r="C92" s="35"/>
       <c r="D92" s="36"/>
       <c r="E92" s="14"/>
-      <c r="F92" s="22">
-        <v>3</v>
-      </c>
+      <c r="F92" s="22"/>
       <c r="G92" s="34"/>
       <c r="H92" s="35"/>
       <c r="I92" s="35"/>
@@ -2596,14 +2591,12 @@
         <v>4</v>
       </c>
       <c r="B93" s="34" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C93" s="35"/>
       <c r="D93" s="36"/>
       <c r="E93" s="14"/>
-      <c r="F93" s="22">
-        <v>4</v>
-      </c>
+      <c r="F93" s="22"/>
       <c r="G93" s="34"/>
       <c r="H93" s="35"/>
       <c r="I93" s="35"/>
@@ -2628,7 +2621,7 @@
         <v>22</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C95" s="15"/>
       <c r="D95" s="15"/>
@@ -2805,14 +2798,14 @@
       <c r="K104" s="36"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" s="47" t="s">
+      <c r="A109" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B109" s="43"/>
       <c r="C109" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D109" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D109" s="53" t="s">
         <v>0</v>
       </c>
       <c r="E109" s="43"/>
@@ -2826,29 +2819,29 @@
       <c r="K109" s="36"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A110" s="47" t="s">
+      <c r="A110" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B110" s="43"/>
       <c r="C110" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D110" s="47" t="s">
+      <c r="D110" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E110" s="43"/>
       <c r="F110" s="35" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G110" s="36"/>
-      <c r="H110" s="49" t="s">
+      <c r="H110" s="47" t="s">
         <v>12</v>
       </c>
       <c r="I110" s="43"/>
-      <c r="J110" s="50" t="s">
+      <c r="J110" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="K110" s="51"/>
+      <c r="K110" s="56"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="14"/>
@@ -2864,12 +2857,12 @@
       <c r="K111" s="15"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A112" s="52" t="s">
+      <c r="A112" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B112" s="53"/>
+      <c r="B112" s="46"/>
       <c r="C112" s="24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
@@ -2894,29 +2887,29 @@
       <c r="K113" s="15"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A114" s="49" t="s">
+      <c r="A114" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B114" s="53"/>
+      <c r="B114" s="46"/>
       <c r="C114" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D114" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D114" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E114" s="53"/>
-      <c r="F114" s="54" t="s">
+      <c r="E114" s="46"/>
+      <c r="F114" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G114" s="55"/>
-      <c r="H114" s="49" t="s">
+      <c r="G114" s="49"/>
+      <c r="H114" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I114" s="53"/>
-      <c r="J114" s="56" t="s">
+      <c r="I114" s="46"/>
+      <c r="J114" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="K114" s="56"/>
+      <c r="K114" s="50"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="18"/>
@@ -2935,22 +2928,22 @@
       <c r="A116" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="45" t="s">
+      <c r="B116" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C116" s="46"/>
-      <c r="D116" s="46"/>
+      <c r="C116" s="52"/>
+      <c r="D116" s="52"/>
       <c r="E116" s="20"/>
       <c r="F116" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G116" s="47" t="s">
+      <c r="G116" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H116" s="48"/>
-      <c r="I116" s="48"/>
-      <c r="J116" s="48"/>
-      <c r="K116" s="48"/>
+      <c r="H116" s="54"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="54"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="22">
@@ -2963,7 +2956,7 @@
       <c r="D117" s="36"/>
       <c r="E117" s="14"/>
       <c r="F117" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G117" s="34" t="s">
         <v>53</v>
@@ -2984,7 +2977,7 @@
       <c r="D118" s="36"/>
       <c r="E118" s="14"/>
       <c r="F118" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G118" s="34" t="s">
         <v>54</v>
@@ -3004,9 +2997,7 @@
       <c r="C119" s="35"/>
       <c r="D119" s="36"/>
       <c r="E119" s="14"/>
-      <c r="F119" s="22">
-        <v>3</v>
-      </c>
+      <c r="F119" s="22"/>
       <c r="G119" s="34"/>
       <c r="H119" s="35"/>
       <c r="I119" s="35"/>
@@ -3018,14 +3009,12 @@
         <v>4</v>
       </c>
       <c r="B120" s="34" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C120" s="35"/>
       <c r="D120" s="36"/>
       <c r="E120" s="14"/>
-      <c r="F120" s="22">
-        <v>4</v>
-      </c>
+      <c r="F120" s="22"/>
       <c r="G120" s="34"/>
       <c r="H120" s="35"/>
       <c r="I120" s="35"/>
@@ -3050,7 +3039,7 @@
         <v>22</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
@@ -3103,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="B126" s="32" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C126" s="37"/>
       <c r="D126" s="32" t="s">
@@ -3126,11 +3115,11 @@
         <v>2</v>
       </c>
       <c r="B127" s="32" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C127" s="33"/>
       <c r="D127" s="32" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E127" s="32"/>
       <c r="F127" s="34" t="s">
@@ -3199,7 +3188,7 @@
       </c>
       <c r="C130" s="33"/>
       <c r="D130" s="32" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E130" s="32"/>
       <c r="F130" s="34" t="s">
@@ -3237,14 +3226,14 @@
       <c r="K131" s="36"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A136" s="47" t="s">
+      <c r="A136" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B136" s="43"/>
       <c r="C136" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D136" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D136" s="53" t="s">
         <v>0</v>
       </c>
       <c r="E136" s="43"/>
@@ -3258,29 +3247,29 @@
       <c r="K136" s="36"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A137" s="47" t="s">
+      <c r="A137" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B137" s="43"/>
       <c r="C137" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D137" s="47" t="s">
+      <c r="D137" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E137" s="43"/>
       <c r="F137" s="35" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G137" s="36"/>
-      <c r="H137" s="49" t="s">
+      <c r="H137" s="47" t="s">
         <v>12</v>
       </c>
       <c r="I137" s="43"/>
-      <c r="J137" s="50" t="s">
+      <c r="J137" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="K137" s="51"/>
+      <c r="K137" s="56"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="14"/>
@@ -3296,12 +3285,12 @@
       <c r="K138" s="15"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A139" s="52" t="s">
+      <c r="A139" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B139" s="53"/>
+      <c r="B139" s="46"/>
       <c r="C139" s="24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D139" s="16"/>
       <c r="E139" s="16"/>
@@ -3326,29 +3315,29 @@
       <c r="K140" s="15"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A141" s="49" t="s">
+      <c r="A141" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B141" s="53"/>
+      <c r="B141" s="46"/>
       <c r="C141" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D141" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D141" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E141" s="53"/>
-      <c r="F141" s="54" t="s">
+      <c r="E141" s="46"/>
+      <c r="F141" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G141" s="55"/>
-      <c r="H141" s="49" t="s">
+      <c r="G141" s="49"/>
+      <c r="H141" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I141" s="53"/>
-      <c r="J141" s="56" t="s">
+      <c r="I141" s="46"/>
+      <c r="J141" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="K141" s="56"/>
+      <c r="K141" s="50"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="18"/>
@@ -3367,22 +3356,22 @@
       <c r="A143" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B143" s="45" t="s">
+      <c r="B143" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C143" s="46"/>
-      <c r="D143" s="46"/>
+      <c r="C143" s="52"/>
+      <c r="D143" s="52"/>
       <c r="E143" s="20"/>
       <c r="F143" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G143" s="47" t="s">
+      <c r="G143" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H143" s="48"/>
-      <c r="I143" s="48"/>
-      <c r="J143" s="48"/>
-      <c r="K143" s="48"/>
+      <c r="H143" s="54"/>
+      <c r="I143" s="54"/>
+      <c r="J143" s="54"/>
+      <c r="K143" s="54"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="22">
@@ -3395,7 +3384,7 @@
       <c r="D144" s="36"/>
       <c r="E144" s="14"/>
       <c r="F144" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G144" s="34" t="s">
         <v>58</v>
@@ -3416,7 +3405,7 @@
       <c r="D145" s="36"/>
       <c r="E145" s="14"/>
       <c r="F145" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G145" s="34" t="s">
         <v>40</v>
@@ -3436,9 +3425,7 @@
       <c r="C146" s="35"/>
       <c r="D146" s="36"/>
       <c r="E146" s="14"/>
-      <c r="F146" s="22">
-        <v>3</v>
-      </c>
+      <c r="F146" s="22"/>
       <c r="G146" s="34"/>
       <c r="H146" s="35"/>
       <c r="I146" s="35"/>
@@ -3450,14 +3437,12 @@
         <v>4</v>
       </c>
       <c r="B147" s="34" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C147" s="35"/>
       <c r="D147" s="36"/>
       <c r="E147" s="14"/>
-      <c r="F147" s="22">
-        <v>4</v>
-      </c>
+      <c r="F147" s="22"/>
       <c r="G147" s="34"/>
       <c r="H147" s="35"/>
       <c r="I147" s="35"/>
@@ -3482,7 +3467,7 @@
         <v>22</v>
       </c>
       <c r="B149" s="24" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
@@ -3535,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="B153" s="32" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C153" s="37"/>
       <c r="D153" s="32" t="s">
@@ -3558,11 +3543,11 @@
         <v>2</v>
       </c>
       <c r="B154" s="32" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C154" s="33"/>
       <c r="D154" s="32" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E154" s="32"/>
       <c r="F154" s="34" t="s">
@@ -3631,7 +3616,7 @@
       </c>
       <c r="C157" s="33"/>
       <c r="D157" s="32" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E157" s="32"/>
       <c r="F157" s="34" t="s">
@@ -3670,137 +3655,156 @@
     </row>
   </sheetData>
   <mergeCells count="318">
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="F156:H156"/>
-    <mergeCell ref="I156:K156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="I157:K157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="F158:H158"/>
-    <mergeCell ref="I158:K158"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="F153:H153"/>
-    <mergeCell ref="I153:K153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="F154:H154"/>
-    <mergeCell ref="I154:K154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="F155:H155"/>
-    <mergeCell ref="I155:K155"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="G145:K145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="G146:K146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="G147:K147"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B151:C152"/>
-    <mergeCell ref="D151:E152"/>
-    <mergeCell ref="F151:H152"/>
-    <mergeCell ref="I151:K152"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="G143:K143"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="G144:K144"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="F136:K136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="J137:K137"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="G66:K66"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="I73:K73"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="G62:K62"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="I130:K130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="I131:K131"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="I128:K128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="I129:K129"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="I126:K126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="G119:K119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="G120:K120"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:C125"/>
+    <mergeCell ref="D124:E125"/>
+    <mergeCell ref="F124:H125"/>
+    <mergeCell ref="I124:K125"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="G116:K116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="G117:K117"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="G118:K118"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:C98"/>
+    <mergeCell ref="D97:E98"/>
+    <mergeCell ref="F97:H98"/>
+    <mergeCell ref="I97:K98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="G89:K89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="G90:K90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="G91:K91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="G92:K92"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="B70:C71"/>
+    <mergeCell ref="D70:E71"/>
+    <mergeCell ref="F70:H71"/>
+    <mergeCell ref="I70:K71"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="F55:K55"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="D43:E44"/>
+    <mergeCell ref="F43:H44"/>
+    <mergeCell ref="I43:K44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="F109:K109"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="I100:K100"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="I103:K103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="I104:K104"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="I101:K101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="I102:K102"/>
     <mergeCell ref="B93:D93"/>
     <mergeCell ref="G93:K93"/>
     <mergeCell ref="B89:D89"/>
@@ -3825,38 +3829,17 @@
     <mergeCell ref="F76:H76"/>
     <mergeCell ref="I76:K76"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="F109:K109"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="I100:K100"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="D43:E44"/>
-    <mergeCell ref="F43:H44"/>
-    <mergeCell ref="I43:K44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="G62:K62"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:H49"/>
     <mergeCell ref="I49:K49"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="D50:E50"/>
@@ -3865,129 +3848,131 @@
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="J56:K56"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D55:E55"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="F55:K55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="B72:C72"/>
     <mergeCell ref="D72:E72"/>
     <mergeCell ref="F72:H72"/>
-    <mergeCell ref="I72:K72"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="B70:C71"/>
-    <mergeCell ref="D70:E71"/>
-    <mergeCell ref="F70:H71"/>
-    <mergeCell ref="I70:K71"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="G89:K89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="G90:K90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="G91:K91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="G92:K92"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:C98"/>
-    <mergeCell ref="D97:E98"/>
-    <mergeCell ref="F97:H98"/>
-    <mergeCell ref="I97:K98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:H99"/>
-    <mergeCell ref="I99:K99"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="I103:K103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="I104:K104"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="I101:K101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="I102:K102"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:C125"/>
-    <mergeCell ref="D124:E125"/>
-    <mergeCell ref="F124:H125"/>
-    <mergeCell ref="I124:K125"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="G116:K116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="G117:K117"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="G118:K118"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="I126:K126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="G119:K119"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="G120:K120"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="I130:K130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="I131:K131"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="I128:K128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="I129:K129"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="F136:K136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="J137:K137"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="G143:K143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="G144:K144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="G145:K145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="G146:K146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="G147:K147"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="B151:C152"/>
+    <mergeCell ref="D151:E152"/>
+    <mergeCell ref="F151:H152"/>
+    <mergeCell ref="I151:K152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="F153:H153"/>
+    <mergeCell ref="I153:K153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="F154:H154"/>
+    <mergeCell ref="I154:K154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="F155:H155"/>
+    <mergeCell ref="I155:K155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="F156:H156"/>
+    <mergeCell ref="I156:K156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="F157:H157"/>
+    <mergeCell ref="I157:K157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="I158:K158"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4007,40 +3992,40 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="59"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="62" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -4056,10 +4041,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4084,23 +4069,23 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -4119,90 +4104,90 @@
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="59"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="2"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -4233,121 +4218,158 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="88" t="s">
+      <c r="C16" s="67"/>
+      <c r="D16" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="89"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
       <c r="I16" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="67"/>
-      <c r="K16" s="68"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="81"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="84"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="71"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="84"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="79"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="79"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="79"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="79"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="79"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -4364,43 +4386,6 @@
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="I18:K18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4419,40 +4404,40 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="63"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="59"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="63"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="62" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="65"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -4468,10 +4453,10 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -4496,23 +4481,23 @@
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="60"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="77" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="60"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
@@ -4531,90 +4516,90 @@
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="75"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
       <c r="E9" s="2"/>
       <c r="F9" s="10">
         <v>1</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="2"/>
       <c r="F10" s="10">
         <v>2</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="59"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>3</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="2"/>
       <c r="F11" s="10">
         <v>3</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="2"/>
       <c r="F12" s="10">
         <v>4</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="59"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -4645,121 +4630,158 @@
       <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="88" t="s">
+      <c r="C16" s="67"/>
+      <c r="D16" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="89"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
       <c r="I16" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="67"/>
-      <c r="K16" s="68"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="81"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="84"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="71"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="84"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="79"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="79"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="79"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="79"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="79"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -4776,43 +4798,6 @@
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="I18:K18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
